--- a/biology/Médecine/Walter_Schiller/Walter_Schiller.xlsx
+++ b/biology/Médecine/Walter_Schiller/Walter_Schiller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Schiller, né le 3 décembre 1887 à Vienne en Autriche et mort le 2 mai 1960 à Evanston dans l'Illinois aux États-Unis, est un pathologiste autrichien naturalisé américain. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Schiller a obtenu son doctorat de l'Université de Vienne en 1912. Il a travaillé comme bactériologiste dans l'armée bulgare au cours de la Première Guerre balkanique. Il fut ensuite affecté dans l'armée austro-hongroise durant la Première Guerre mondiale sur le terrain ds combats en Bosnie, en Russie, en Turquie et en Palestine.
 De 1918 à 1921, il fut médecin à l'hôpital militaire de Vienne.
